--- a/database/盈虧問題v3.xlsx
+++ b/database/盈虧問題v3.xlsx
@@ -34928,17 +34928,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -34970,13 +34966,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A235" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N238" activeCellId="0" sqref="N238"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A228" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E253" activeCellId="0" sqref="A253:E253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -35004,4523 +35000,4274 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="F51" s="2" t="n">
+      <c r="F51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="F55" s="2" t="n">
+      <c r="F55" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="F56" s="2" t="n">
+      <c r="F56" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="F58" s="2" t="n">
+      <c r="F58" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="F59" s="2" t="n">
+      <c r="F59" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="F61" s="2" t="n">
+      <c r="F61" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="F62" s="2" t="n">
+      <c r="F62" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="F64" s="2" t="n">
+      <c r="F64" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="F65" s="2" t="n">
+      <c r="F65" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="F66" s="2" t="n">
+      <c r="F66" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="F67" s="2" t="n">
+      <c r="F67" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="F68" s="2" t="n">
+      <c r="F68" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="F69" s="2" t="n">
+      <c r="F69" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="F70" s="2" t="n">
+      <c r="F70" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="F71" s="2" t="n">
+      <c r="F71" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="F72" s="2" t="n">
+      <c r="F72" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="F73" s="2" t="n">
+      <c r="F73" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="F74" s="2" t="n">
+      <c r="F74" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="F75" s="2" t="n">
+      <c r="F75" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="F76" s="2" t="n">
+      <c r="F76" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="F77" s="2" t="n">
+      <c r="F77" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="F78" s="2" t="n">
+      <c r="F78" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="F79" s="2" t="n">
+      <c r="F79" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="F80" s="2" t="n">
+      <c r="F80" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="F81" s="2" t="n">
+      <c r="F81" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="F82" s="2" t="n">
+      <c r="F82" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H82" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="F83" s="2" t="n">
+      <c r="F83" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="F84" s="2" t="n">
+      <c r="F84" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H84" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="F85" s="2" t="n">
+      <c r="F85" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="F86" s="2" t="n">
+      <c r="F86" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="F87" s="2" t="n">
+      <c r="F87" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H87" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="F88" s="2" t="n">
+      <c r="F88" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H88" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="F89" s="2" t="n">
+      <c r="F89" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="H89" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="F90" s="2" t="n">
+      <c r="F90" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="H90" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="F91" s="2" t="n">
+      <c r="F91" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H91" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="F92" s="2" t="n">
+      <c r="F92" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H92" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="F93" s="2" t="n">
+      <c r="F93" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="H93" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="F94" s="2" t="n">
+      <c r="F94" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="F95" s="2" t="n">
+      <c r="F95" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="H95" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="F96" s="2" t="n">
+      <c r="F96" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H96" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="F97" s="2" t="n">
+      <c r="F97" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H97" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="F98" s="2" t="n">
+      <c r="F98" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H98" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="F99" s="2" t="n">
+      <c r="F99" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="H99" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="F100" s="2" t="n">
+      <c r="F100" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H100" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="F101" s="2" t="n">
+      <c r="F101" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="H101" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="F102" s="2" t="n">
+      <c r="F102" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="H102" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="F103" s="2" t="n">
+      <c r="F103" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="H103" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="F104" s="2" t="n">
+      <c r="F104" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G104" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="H104" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="F105" s="2" t="n">
+      <c r="F105" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G105" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="H105" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C106" s="2"/>
-      <c r="F106" s="2" t="n">
+      <c r="F106" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="H106" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C107" s="2"/>
-      <c r="F107" s="2" t="n">
+      <c r="F107" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G107" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="H107" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C108" s="2"/>
-      <c r="F108" s="2" t="n">
+      <c r="F108" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="H108" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C109" s="2"/>
-      <c r="F109" s="2" t="n">
+      <c r="F109" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G109" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H109" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C110" s="2"/>
-      <c r="F110" s="2" t="n">
+      <c r="F110" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="G110" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="H110" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="F111" s="2" t="n">
+      <c r="F111" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="H111" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C112" s="2"/>
-      <c r="F112" s="2" t="n">
+      <c r="F112" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G112" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="H112" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="F113" s="2" t="n">
+      <c r="F113" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="G113" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="H113" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="F114" s="2" t="n">
+      <c r="F114" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G114" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H114" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="2"/>
-      <c r="F115" s="2" t="n">
+      <c r="F115" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G115" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="H115" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="F116" s="2" t="n">
+      <c r="F116" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G116" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="H116" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="F117" s="2" t="n">
+      <c r="F117" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="H117" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="F118" s="2" t="n">
+      <c r="F118" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G118" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="H118" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="F119" s="2" t="n">
+      <c r="F119" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G119" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="H119" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="F120" s="2" t="n">
+      <c r="F120" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="G120" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="H120" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="F121" s="2" t="n">
+      <c r="F121" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G121" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H121" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="F122" s="2" t="n">
+      <c r="F122" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="F123" s="2" t="n">
+      <c r="F123" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="G123" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="H123" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="F124" s="2" t="n">
+      <c r="F124" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G124" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H124" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="F125" s="2" t="n">
+      <c r="F125" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G125" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="H125" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="F126" s="2" t="n">
+      <c r="F126" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G126" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="H126" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="F127" s="2" t="n">
+      <c r="F127" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H127" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C128" s="2"/>
-      <c r="F128" s="2" t="n">
+      <c r="F128" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="G128" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="H128" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C129" s="2"/>
-      <c r="F129" s="2" t="n">
+      <c r="F129" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="G129" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="H129" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C130" s="2"/>
-      <c r="F130" s="2" t="n">
+      <c r="F130" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G130" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H130" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="F131" s="2" t="n">
+      <c r="F131" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="G131" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H131" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="F132" s="2" t="n">
+      <c r="F132" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="G132" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H132" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="F133" s="2" t="n">
+      <c r="F133" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G133" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="H133" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="s">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="F134" s="2" t="n">
+      <c r="F134" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="G134" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H134" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="F135" s="2" t="n">
+      <c r="F135" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="G135" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H135" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="s">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="F136" s="2" t="n">
+      <c r="F136" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="G136" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="s">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="F137" s="2" t="n">
+      <c r="F137" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="G137" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H137" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C138" s="2"/>
-      <c r="F138" s="2" t="n">
+      <c r="F138" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="G138" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H138" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="F139" s="2" t="n">
+      <c r="F139" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="G139" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H139" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="s">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C140" s="2"/>
-      <c r="F140" s="2" t="n">
+      <c r="F140" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="G140" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="H140" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="s">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C141" s="2"/>
-      <c r="F141" s="2" t="n">
+      <c r="F141" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="G141" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="H141" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="s">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="2"/>
-      <c r="F142" s="2" t="n">
+      <c r="F142" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="G142" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="H142" s="3" t="s">
+      <c r="H142" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="F143" s="2" t="n">
+      <c r="F143" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="G143" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="H143" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="F144" s="2" t="n">
+      <c r="F144" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="G144" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="H144" s="3" t="s">
+      <c r="H144" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C145" s="2"/>
-      <c r="F145" s="2" t="n">
+      <c r="F145" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G145" s="2" t="s">
+      <c r="G145" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="H145" s="3" t="s">
+      <c r="H145" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="F146" s="2" t="n">
+      <c r="F146" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="G146" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="H146" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C147" s="2"/>
-      <c r="F147" s="2" t="n">
+      <c r="F147" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="G147" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="H147" s="3" t="s">
+      <c r="H147" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C148" s="2"/>
-      <c r="F148" s="2" t="n">
+      <c r="F148" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="G148" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="H148" s="3" t="s">
+      <c r="H148" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="F149" s="2" t="n">
+      <c r="F149" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="G149" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="H149" s="3" t="s">
+      <c r="H149" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="s">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="F150" s="2" t="n">
+      <c r="F150" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G150" s="2" t="s">
+      <c r="G150" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="H150" s="3" t="s">
+      <c r="H150" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C151" s="2"/>
-      <c r="F151" s="2" t="n">
+      <c r="F151" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="G151" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="H151" s="3" t="s">
+      <c r="H151" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="s">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C152" s="2"/>
-      <c r="F152" s="2" t="n">
+      <c r="F152" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="G152" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="H152" s="3" t="s">
+      <c r="H152" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="F153" s="2" t="n">
+      <c r="F153" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="G153" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="H153" s="3" t="s">
+      <c r="H153" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="F154" s="2" t="n">
+      <c r="F154" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="G154" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="H154" s="3" t="s">
+      <c r="H154" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="s">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C155" s="2"/>
-      <c r="F155" s="2" t="n">
+      <c r="F155" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="G155" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="H155" s="3" t="s">
+      <c r="H155" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="F156" s="2" t="n">
+      <c r="F156" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G156" s="2" t="s">
+      <c r="G156" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="H156" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="s">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="F157" s="2" t="n">
+      <c r="F157" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="G157" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="H157" s="3" t="s">
+      <c r="H157" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C158" s="2"/>
-      <c r="F158" s="2" t="n">
+      <c r="F158" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G158" s="2" t="s">
+      <c r="G158" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="H158" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="s">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C159" s="2"/>
-      <c r="F159" s="2" t="n">
+      <c r="F159" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="G159" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="H159" s="3" t="s">
+      <c r="H159" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="F160" s="2" t="n">
+      <c r="F160" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="G160" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="H160" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C161" s="2"/>
-      <c r="F161" s="2" t="n">
+      <c r="F161" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G161" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="H161" s="3" t="s">
+      <c r="H161" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C162" s="2"/>
-      <c r="F162" s="2" t="n">
+      <c r="F162" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="G162" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="H162" s="3" t="s">
+      <c r="H162" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C163" s="2"/>
-      <c r="F163" s="2" t="n">
+      <c r="F163" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="G163" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="H163" s="3" t="s">
+      <c r="H163" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="2"/>
-      <c r="F164" s="2" t="n">
+      <c r="F164" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="G164" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="H164" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C165" s="2"/>
-      <c r="F165" s="2" t="n">
+      <c r="F165" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G165" s="2" t="s">
+      <c r="G165" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="H165" s="3" t="s">
+      <c r="H165" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C166" s="2"/>
-      <c r="F166" s="2" t="n">
+      <c r="F166" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="G166" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="H166" s="3" t="s">
+      <c r="H166" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C167" s="2"/>
-      <c r="F167" s="2" t="n">
+      <c r="F167" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G167" s="2" t="s">
+      <c r="G167" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="H167" s="3" t="s">
+      <c r="H167" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C168" s="2"/>
-      <c r="F168" s="2" t="n">
+      <c r="F168" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="G168" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="H168" s="3" t="s">
+      <c r="H168" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C169" s="2"/>
-      <c r="F169" s="2" t="n">
+      <c r="F169" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G169" s="2" t="s">
+      <c r="G169" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="H169" s="3" t="s">
+      <c r="H169" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C170" s="2"/>
-      <c r="F170" s="2" t="n">
+      <c r="F170" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G170" s="2" t="s">
+      <c r="G170" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="H170" s="3" t="s">
+      <c r="H170" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C171" s="2"/>
-      <c r="F171" s="2" t="n">
+      <c r="F171" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="G171" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="H171" s="3" t="s">
+      <c r="H171" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C172" s="2"/>
-      <c r="F172" s="2" t="n">
+      <c r="F172" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G172" s="2" t="s">
+      <c r="G172" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="H172" s="3" t="s">
+      <c r="H172" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C173" s="2"/>
-      <c r="F173" s="2" t="n">
+      <c r="F173" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="G173" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="H173" s="3" t="s">
+      <c r="H173" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C174" s="2"/>
-      <c r="F174" s="2" t="n">
+      <c r="F174" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G174" s="2" t="s">
+      <c r="G174" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="H174" s="3" t="s">
+      <c r="H174" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C175" s="2"/>
-      <c r="F175" s="2" t="n">
+      <c r="F175" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G175" s="2" t="s">
+      <c r="G175" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="H175" s="3" t="s">
+      <c r="H175" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="s">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C176" s="2"/>
-      <c r="F176" s="2" t="n">
+      <c r="F176" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G176" s="2" t="s">
+      <c r="G176" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="H176" s="3" t="s">
+      <c r="H176" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C177" s="2"/>
-      <c r="F177" s="2" t="n">
+      <c r="F177" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G177" s="2" t="s">
+      <c r="G177" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="H177" s="3" t="s">
+      <c r="H177" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="s">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C178" s="2"/>
-      <c r="F178" s="2" t="n">
+      <c r="F178" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G178" s="2" t="s">
+      <c r="G178" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="H178" s="3" t="s">
+      <c r="H178" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="s">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C179" s="2"/>
-      <c r="F179" s="2" t="n">
+      <c r="F179" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G179" s="2" t="s">
+      <c r="G179" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="H179" s="3" t="s">
+      <c r="H179" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="s">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C180" s="2"/>
-      <c r="F180" s="2" t="n">
+      <c r="F180" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="G180" s="2" t="s">
+      <c r="G180" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="H180" s="3" t="s">
+      <c r="H180" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="s">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C181" s="2"/>
-      <c r="F181" s="2" t="n">
+      <c r="F181" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G181" s="2" t="s">
+      <c r="G181" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="H181" s="3" t="s">
+      <c r="H181" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="s">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C182" s="2"/>
-      <c r="F182" s="2" t="n">
+      <c r="F182" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G182" s="2" t="s">
+      <c r="G182" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="H182" s="3" t="s">
+      <c r="H182" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C183" s="2"/>
-      <c r="F183" s="2" t="n">
+      <c r="F183" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G183" s="2" t="s">
+      <c r="G183" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="H183" s="3" t="s">
+      <c r="H183" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="s">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C184" s="2"/>
-      <c r="F184" s="2" t="n">
+      <c r="F184" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G184" s="2" t="s">
+      <c r="G184" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="H184" s="3" t="s">
+      <c r="H184" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="s">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C185" s="2"/>
-      <c r="F185" s="2" t="n">
+      <c r="F185" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G185" s="2" t="s">
+      <c r="G185" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="H185" s="3" t="s">
+      <c r="H185" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C186" s="2"/>
-      <c r="F186" s="2" t="n">
+      <c r="F186" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G186" s="2" t="s">
+      <c r="G186" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="H186" s="3" t="s">
+      <c r="H186" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="s">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C187" s="2"/>
-      <c r="F187" s="2" t="n">
+      <c r="F187" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="G187" s="2" t="s">
+      <c r="G187" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="H187" s="3" t="s">
+      <c r="H187" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C188" s="2"/>
-      <c r="F188" s="2" t="n">
+      <c r="F188" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="G188" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="H188" s="3" t="s">
+      <c r="H188" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C189" s="2"/>
-      <c r="F189" s="2" t="n">
+      <c r="F189" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G189" s="2" t="s">
+      <c r="G189" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="H189" s="3" t="s">
+      <c r="H189" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="s">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C190" s="2"/>
-      <c r="F190" s="2" t="n">
+      <c r="F190" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G190" s="2" t="s">
+      <c r="G190" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="H190" s="3" t="s">
+      <c r="H190" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C191" s="2"/>
-      <c r="F191" s="2" t="n">
+      <c r="F191" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G191" s="2" t="s">
+      <c r="G191" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="H191" s="3" t="s">
+      <c r="H191" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C192" s="2"/>
-      <c r="F192" s="2" t="n">
+      <c r="F192" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G192" s="2" t="s">
+      <c r="G192" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="H192" s="3" t="s">
+      <c r="H192" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C193" s="2"/>
-      <c r="F193" s="2" t="n">
+      <c r="F193" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G193" s="2" t="s">
+      <c r="G193" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="H193" s="3" t="s">
+      <c r="H193" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C194" s="2"/>
-      <c r="F194" s="2" t="n">
+      <c r="F194" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G194" s="2" t="s">
+      <c r="G194" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="H194" s="3" t="s">
+      <c r="H194" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="s">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C195" s="2"/>
-      <c r="F195" s="2" t="n">
+      <c r="F195" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G195" s="2" t="s">
+      <c r="G195" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="H195" s="3" t="s">
+      <c r="H195" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="s">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C196" s="2"/>
-      <c r="F196" s="2" t="n">
+      <c r="F196" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G196" s="2" t="s">
+      <c r="G196" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="H196" s="3" t="s">
+      <c r="H196" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C197" s="2"/>
-      <c r="F197" s="2" t="n">
+      <c r="F197" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G197" s="2" t="s">
+      <c r="G197" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="H197" s="3" t="s">
+      <c r="H197" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C198" s="2"/>
-      <c r="F198" s="2" t="n">
+      <c r="F198" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G198" s="2" t="s">
+      <c r="G198" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="H198" s="3" t="s">
+      <c r="H198" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="s">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C199" s="2"/>
-      <c r="F199" s="2" t="n">
+      <c r="F199" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G199" s="2" t="s">
+      <c r="G199" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="H199" s="3" t="s">
+      <c r="H199" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C200" s="2"/>
-      <c r="F200" s="2" t="n">
+      <c r="F200" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G200" s="2" t="s">
+      <c r="G200" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="H200" s="3" t="s">
+      <c r="H200" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C201" s="2"/>
-      <c r="F201" s="2" t="n">
+      <c r="F201" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G201" s="2" t="s">
+      <c r="G201" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="H201" s="3" t="s">
+      <c r="H201" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="s">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C202" s="2"/>
-      <c r="F202" s="2" t="n">
+      <c r="F202" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G202" s="2" t="s">
+      <c r="G202" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="H202" s="3" t="s">
+      <c r="H202" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="s">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C203" s="2"/>
-      <c r="F203" s="2" t="n">
+      <c r="F203" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G203" s="2" t="s">
+      <c r="G203" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="H203" s="3" t="s">
+      <c r="H203" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="s">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C204" s="2"/>
-      <c r="F204" s="2" t="n">
+      <c r="F204" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G204" s="2" t="s">
+      <c r="G204" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="H204" s="3" t="s">
+      <c r="H204" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="s">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C205" s="2"/>
-      <c r="F205" s="2" t="n">
+      <c r="F205" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G205" s="2" t="s">
+      <c r="G205" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="H205" s="3" t="s">
+      <c r="H205" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="s">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C206" s="2"/>
-      <c r="F206" s="2" t="n">
+      <c r="F206" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G206" s="2" t="s">
+      <c r="G206" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="H206" s="3" t="s">
+      <c r="H206" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="s">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C207" s="2"/>
-      <c r="F207" s="2" t="n">
+      <c r="F207" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G207" s="2" t="s">
+      <c r="G207" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="H207" s="3" t="s">
+      <c r="H207" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="s">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C208" s="2"/>
-      <c r="F208" s="2" t="n">
+      <c r="F208" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G208" s="2" t="s">
+      <c r="G208" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="H208" s="3" t="s">
+      <c r="H208" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="s">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C209" s="2"/>
-      <c r="F209" s="2" t="n">
+      <c r="F209" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G209" s="2" t="s">
+      <c r="G209" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="H209" s="3" t="s">
+      <c r="H209" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="s">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C210" s="2"/>
-      <c r="F210" s="2" t="n">
+      <c r="F210" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G210" s="2" t="s">
+      <c r="G210" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="H210" s="3" t="s">
+      <c r="H210" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="s">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C211" s="2"/>
-      <c r="F211" s="2" t="n">
+      <c r="F211" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G211" s="2" t="s">
+      <c r="G211" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="H211" s="3" t="s">
+      <c r="H211" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2" t="s">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C212" s="2"/>
-      <c r="F212" s="2" t="n">
+      <c r="F212" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G212" s="2" t="s">
+      <c r="G212" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="H212" s="3" t="s">
+      <c r="H212" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2" t="s">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C213" s="2"/>
-      <c r="F213" s="2" t="n">
+      <c r="F213" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G213" s="2" t="s">
+      <c r="G213" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="H213" s="3" t="s">
+      <c r="H213" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="s">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C214" s="2"/>
-      <c r="F214" s="2" t="n">
+      <c r="F214" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G214" s="4" t="s">
+      <c r="G214" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H214" s="3" t="s">
+      <c r="H214" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="s">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C215" s="2"/>
-      <c r="F215" s="2" t="n">
+      <c r="F215" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G215" s="2" t="s">
+      <c r="G215" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="H215" s="3" t="s">
+      <c r="H215" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="s">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C216" s="2"/>
-      <c r="F216" s="2" t="n">
+      <c r="F216" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G216" s="4" t="s">
+      <c r="G216" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H216" s="3" t="s">
+      <c r="H216" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="210.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="s">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C217" s="2"/>
-      <c r="F217" s="2" t="n">
+      <c r="F217" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G217" s="4" t="s">
+      <c r="G217" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H217" s="3" t="s">
+      <c r="H217" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="210.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="s">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C218" s="2"/>
-      <c r="F218" s="2" t="n">
+      <c r="F218" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G218" s="4" t="s">
+      <c r="G218" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H218" s="3" t="s">
+      <c r="H218" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="210.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="s">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C219" s="2"/>
-      <c r="F219" s="2" t="n">
+      <c r="F219" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G219" s="4" t="s">
+      <c r="G219" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H219" s="3" t="s">
+      <c r="H219" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C220" s="2"/>
-      <c r="F220" s="2" t="n">
+      <c r="F220" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G220" s="2" t="s">
+      <c r="G220" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="H220" s="3" t="s">
+      <c r="H220" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="195.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="s">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C221" s="2"/>
-      <c r="F221" s="2" t="n">
+      <c r="F221" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G221" s="5" t="s">
+      <c r="G221" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H221" s="3" t="s">
+      <c r="H221" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="285.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="s">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C222" s="2"/>
-      <c r="F222" s="2" t="n">
+      <c r="F222" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G222" s="5" t="s">
+      <c r="G222" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H222" s="3" t="s">
+      <c r="H222" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="s">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C223" s="2"/>
-      <c r="F223" s="2" t="n">
+      <c r="F223" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G223" s="5" t="s">
+      <c r="G223" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="H223" s="3" t="s">
+      <c r="H223" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="s">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C224" s="2"/>
-      <c r="F224" s="2" t="n">
+      <c r="F224" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G224" s="5" t="s">
+      <c r="G224" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H224" s="3" t="s">
+      <c r="H224" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="s">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C225" s="2"/>
-      <c r="F225" s="2" t="n">
+      <c r="F225" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G225" s="5" t="s">
+      <c r="G225" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="H225" s="3" t="s">
+      <c r="H225" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2" t="s">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C226" s="2"/>
-      <c r="F226" s="2" t="n">
+      <c r="F226" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G226" s="5" t="s">
+      <c r="G226" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="H226" s="3" t="s">
+      <c r="H226" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="285.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2" t="s">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C227" s="2"/>
-      <c r="F227" s="2" t="n">
+      <c r="F227" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G227" s="4" t="s">
+      <c r="G227" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H227" s="3" t="s">
+      <c r="H227" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="210.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2" t="s">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C228" s="2"/>
-      <c r="F228" s="2" t="n">
+      <c r="F228" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G228" s="4" t="s">
+      <c r="G228" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H228" s="3" t="s">
+      <c r="H228" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="344.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="s">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C229" s="2"/>
-      <c r="F229" s="2" t="n">
+      <c r="F229" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G229" s="4" t="s">
+      <c r="G229" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="H229" s="3" t="s">
+      <c r="H229" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2" t="s">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C230" s="2"/>
-      <c r="F230" s="2" t="n">
+      <c r="F230" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G230" s="4" t="s">
+      <c r="G230" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H230" s="3" t="s">
+      <c r="H230" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2" t="s">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C231" s="2"/>
-      <c r="F231" s="2" t="n">
+      <c r="F231" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G231" s="2" t="s">
+      <c r="G231" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="H231" s="3" t="s">
+      <c r="H231" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2" t="s">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C232" s="2"/>
-      <c r="F232" s="2" t="n">
+      <c r="F232" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G232" s="4" t="s">
+      <c r="G232" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="H232" s="3" t="s">
+      <c r="H232" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2" t="s">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C233" s="2"/>
-      <c r="F233" s="2" t="n">
+      <c r="F233" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G233" s="4" t="s">
+      <c r="G233" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H233" s="3" t="s">
+      <c r="H233" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="355.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2" t="s">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C234" s="2"/>
-      <c r="F234" s="2" t="n">
+      <c r="F234" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G234" s="4" t="s">
+      <c r="G234" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H234" s="3" t="s">
+      <c r="H234" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2" t="s">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C235" s="2"/>
-      <c r="F235" s="2" t="n">
+      <c r="F235" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G235" s="4" t="s">
+      <c r="G235" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="H235" s="3" t="s">
+      <c r="H235" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2" t="s">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C236" s="2"/>
-      <c r="F236" s="2" t="n">
+      <c r="F236" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G236" s="4" t="s">
+      <c r="G236" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H236" s="3" t="s">
+      <c r="H236" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="2" t="s">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C237" s="2"/>
-      <c r="F237" s="2" t="n">
+      <c r="F237" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G237" s="2" t="s">
+      <c r="G237" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="H237" s="3" t="s">
+      <c r="H237" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="2" t="s">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="F238" s="2" t="n">
+      <c r="F238" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G238" s="5" t="s">
+      <c r="G238" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H238" s="3" t="s">
+      <c r="H238" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2" t="s">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C239" s="2"/>
-      <c r="F239" s="2" t="n">
+      <c r="F239" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G239" s="4" t="s">
+      <c r="G239" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H239" s="3" t="s">
+      <c r="H239" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2" t="s">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="C240" s="2"/>
-      <c r="F240" s="2" t="n">
+      <c r="F240" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G240" s="2" t="s">
+      <c r="G240" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="H240" s="3" t="s">
+      <c r="H240" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="206.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2" t="s">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="C241" s="2"/>
-      <c r="F241" s="2" t="n">
+      <c r="F241" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G241" s="5" t="s">
+      <c r="G241" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="H241" s="3" t="s">
+      <c r="H241" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="2" t="s">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C242" s="2"/>
-      <c r="F242" s="2" t="n">
+      <c r="F242" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G242" s="4" t="s">
+      <c r="G242" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H242" s="3" t="s">
+      <c r="H242" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="195.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="2" t="s">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C243" s="2"/>
-      <c r="F243" s="2" t="n">
+      <c r="F243" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G243" s="4" t="s">
+      <c r="G243" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H243" s="3" t="s">
+      <c r="H243" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="s">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C244" s="2"/>
-      <c r="F244" s="2" t="n">
+      <c r="F244" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G244" s="4" t="s">
+      <c r="G244" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H244" s="3" t="s">
+      <c r="H244" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2" t="s">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="C245" s="2"/>
-      <c r="F245" s="2" t="n">
+      <c r="F245" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G245" s="2" t="s">
+      <c r="G245" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="H245" s="3" t="s">
+      <c r="H245" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2" t="s">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="C246" s="2"/>
-      <c r="F246" s="2" t="n">
+      <c r="F246" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G246" s="2" t="s">
+      <c r="G246" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="H246" s="3" t="s">
+      <c r="H246" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2" t="s">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="C247" s="2"/>
-      <c r="F247" s="2" t="n">
+      <c r="F247" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G247" s="4" t="s">
+      <c r="G247" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="H247" s="3" t="s">
+      <c r="H247" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="s">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="C248" s="2"/>
-      <c r="F248" s="2" t="n">
+      <c r="F248" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G248" s="2" t="s">
+      <c r="G248" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="H248" s="3" t="s">
+      <c r="H248" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2" t="s">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="C249" s="2"/>
-      <c r="F249" s="2" t="n">
+      <c r="F249" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G249" s="2" t="n">
+      <c r="G249" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="H249" s="3" t="s">
+      <c r="H249" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2" t="s">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C250" s="2"/>
-      <c r="F250" s="2" t="n">
+      <c r="F250" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G250" s="3" t="s">
+      <c r="G250" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="H250" s="3" t="s">
+      <c r="H250" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="2" t="s">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C251" s="2"/>
-      <c r="F251" s="2" t="n">
+      <c r="F251" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G251" s="5" t="s">
+      <c r="G251" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="H251" s="3" t="s">
+      <c r="H251" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2" t="s">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C252" s="2"/>
-      <c r="F252" s="2" t="n">
+      <c r="F252" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G252" s="5" t="s">
+      <c r="G252" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="H252" s="5" t="s">
+      <c r="H252" s="2" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/database/盈虧問題v3.xlsx
+++ b/database/盈虧問題v3.xlsx
@@ -34968,8 +34968,8 @@
   </sheetPr>
   <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A228" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E253" activeCellId="0" sqref="A253:E253"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A238" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N253" activeCellId="0" sqref="N253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39268,6 +39268,12 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/database/盈虧問題v3.xlsx
+++ b/database/盈虧問題v3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="304">
   <si>
     <t xml:space="preserve">第一層</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">圖</t>
   </si>
   <si>
+    <t xml:space="preserve">編號</t>
+  </si>
+  <si>
     <t xml:space="preserve">盈虧問題</t>
   </si>
   <si>
@@ -34838,7 +34841,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -34867,6 +34870,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -34928,7 +34939,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -34937,15 +34948,27 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -34966,15 +34989,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A238" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N253" activeCellId="0" sqref="N253"/>
+      <selection pane="topLeft" activeCell="K252" activeCellId="0" sqref="K252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34999,4272 +35022,5029 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G74" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G83" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F84" s="3" t="n">
         <v>11</v>
       </c>
+      <c r="G84" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>82</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F105" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F106" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F107" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F108" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F109" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F110" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F111" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F113" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F115" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F116" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F117" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F118" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F119" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F120" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="G120" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="B121" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F121" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F122" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F123" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F124" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F125" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F126" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F128" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F129" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F130" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F131" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F132" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G132" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H132" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I132" s="0" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F133" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F134" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F135" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F136" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F137" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F139" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F140" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F141" s="3" t="n">
         <v>11</v>
       </c>
+      <c r="G141" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>139</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F142" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F143" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F144" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F145" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F146" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F147" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F148" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F149" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F150" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F151" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F152" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F153" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I153" s="0" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F154" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I154" s="0" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F155" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" s="0" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F156" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F157" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="G157" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="B158" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F158" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F159" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159" s="0" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F160" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I160" s="0" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F161" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F162" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I162" s="0" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F163" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I163" s="0" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F164" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164" s="0" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F165" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165" s="0" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F166" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I166" s="0" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F167" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F168" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" s="0" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F169" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I169" s="0" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F170" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I170" s="0" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F171" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I171" s="0" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F172" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I172" s="0" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F173" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I173" s="0" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F174" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I174" s="0" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F175" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I175" s="0" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F176" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I176" s="0" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F177" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I177" s="0" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F178" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I178" s="0" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F179" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I179" s="0" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F180" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180" s="0" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F181" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I181" s="0" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F182" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I182" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F183" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I183" s="0" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F184" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I184" s="0" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F185" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I185" s="0" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F186" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I186" s="0" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F187" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I187" s="0" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F188" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I188" s="0" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F189" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F190" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G190" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190" s="0" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F191" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I191" s="0" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F192" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I192" s="0" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F193" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I193" s="0" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F194" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I194" s="0" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F195" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195" s="0" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F196" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" s="0" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F197" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I197" s="0" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F198" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I198" s="0" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F199" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I199" s="0" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F200" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G200" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" s="0" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F201" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I201" s="0" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F202" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I202" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F203" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I203" s="0" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F204" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I204" s="0" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F205" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I205" s="0" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F206" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I206" s="0" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F207" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I207" s="0" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F208" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I208" s="0" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F209" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H209" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I209" s="0" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F210" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I210" s="0" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F211" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I211" s="0" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F212" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I212" s="0" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F213" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I213" s="0" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F214" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I214" s="0" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F215" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I215" s="0" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F216" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I216" s="0" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="210.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F217" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I217" s="0" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="210.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F218" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I218" s="0" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="210.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F219" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I219" s="0" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F220" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I220" s="0" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="195.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F221" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I221" s="0" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="285.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F222" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I222" s="0" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F223" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I223" s="0" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F224" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I224" s="0" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F225" s="3" t="n">
         <v>11</v>
       </c>
+      <c r="G225" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H225" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I225" s="0" t="n">
+        <v>223</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="0" t="n">
+    <row r="226" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F226" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G226" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I226" s="0" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="285.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F227" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I227" s="0" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="210.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F228" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H228" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I228" s="0" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="344.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F229" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G229" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I229" s="0" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F230" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I230" s="0" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F231" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I231" s="0" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F232" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I232" s="0" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F233" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I233" s="0" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="355.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F234" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H234" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I234" s="0" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F235" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I235" s="0" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F236" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H236" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I236" s="0" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F237" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H237" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I237" s="0" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F238" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H238" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I238" s="0" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F239" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H239" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I239" s="0" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F240" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I240" s="0" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="206.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F241" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G241" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I241" s="0" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F242" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I242" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="195.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F243" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I243" s="0" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F244" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I244" s="0" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F245" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
+      <c r="G245" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="H245" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I245" s="0" t="n">
+        <v>243</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="0" t="n">
+    <row r="246" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F246" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
+      <c r="G246" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H246" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I246" s="0" t="n">
+        <v>244</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="0" t="n">
+    <row r="247" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F247" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
+      <c r="G247" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I247" s="0" t="n">
+        <v>245</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="0" t="n">
+    <row r="248" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F248" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
+      <c r="G248" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H248" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I248" s="0" t="n">
+        <v>246</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>11</v>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F249" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="H249" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I249" s="0" t="n">
+        <v>247</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F250" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H250" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I250" s="0" t="n">
+        <v>248</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
+    <row r="251" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F251" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H251" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I251" s="0" t="n">
+        <v>249</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="0" t="n">
+    <row r="252" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F252" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G252" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H252" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F78" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F83" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F84" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F85" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F86" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F87" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F88" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G88" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G89" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="G90" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G93" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F94" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G94" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F95" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F97" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="G97" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F98" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="G98" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F99" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F100" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F101" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F102" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F103" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G103" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F104" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="G104" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F105" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G105" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F106" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="G106" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F107" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="G107" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F108" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="G108" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F109" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="G109" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F110" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="G110" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F111" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="G111" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F112" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="G112" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F113" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G113" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F114" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G114" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F115" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G115" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F116" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G116" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F117" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G117" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F118" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F119" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F120" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F121" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G121" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F122" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F123" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F124" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G124" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F125" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F126" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F127" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G127" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F128" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F129" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="G129" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F130" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F131" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F132" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G132" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F133" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G133" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F134" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G134" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F135" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G135" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F136" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G136" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F137" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G137" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F138" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F139" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G139" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F140" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G140" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F141" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G141" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F142" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G142" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F143" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G143" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F144" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G144" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F145" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G145" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F146" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G146" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F147" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G147" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F148" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G148" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F149" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G149" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F150" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G150" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F151" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G151" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F152" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G152" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F153" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G153" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F154" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G154" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F155" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G155" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F156" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G156" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F157" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G157" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F158" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G158" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F159" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G159" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F160" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G160" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F161" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G161" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F162" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G162" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F163" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G163" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F164" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G164" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F165" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G165" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F166" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="G166" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F167" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="G167" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F168" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="G168" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F169" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G169" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F170" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G170" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F171" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G171" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F172" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="G172" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F173" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="G173" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F174" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="G174" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F175" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="G175" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F176" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="G176" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F177" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="G177" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F178" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="G178" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F179" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G179" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F180" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="G180" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F181" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G181" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F182" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="G182" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F183" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="G183" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F184" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="G184" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F185" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="G185" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F186" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="G186" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F187" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="G187" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F188" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G188" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F189" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G189" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F190" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G190" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F191" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G191" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F192" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G192" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F193" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G193" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F194" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G194" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F195" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G195" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F196" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G196" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="H196" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F197" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G197" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="H197" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F198" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G198" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F199" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G199" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F200" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G200" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F201" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G201" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="H201" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="F202" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G202" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="H202" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="F203" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G203" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="F204" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G204" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="F205" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G205" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="F206" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G206" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="F207" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G207" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="F208" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G208" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H208" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="F209" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G209" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="F210" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G210" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="F211" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G211" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="H211" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="F212" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G212" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="H212" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="F213" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G213" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="H213" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="F214" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G214" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H214" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F215" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G215" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="H215" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F216" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H216" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F217" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G217" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H217" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F218" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H218" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F219" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F220" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G220" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="H220" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F221" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G221" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F222" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G222" s="4" t="s">
+      <c r="I252" s="0" t="n">
         <v>250</v>
-      </c>
-      <c r="H222" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F223" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G223" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H223" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F224" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G224" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H224" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F225" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G225" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H225" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F226" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G226" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F227" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G227" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H227" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F228" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G228" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F229" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G229" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="H229" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F230" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G230" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H230" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F231" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="G231" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="H231" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F232" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="G232" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H232" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F233" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="G233" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F234" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H234" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F235" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G235" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H235" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F236" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G236" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H236" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F237" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="G237" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="H237" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F238" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H238" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="F239" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="G239" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H239" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="F240" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G240" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="H240" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="F241" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G241" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H241" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F242" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G242" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H242" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F243" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G243" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H243" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F244" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G244" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="F245" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G245" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="H245" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="F246" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G246" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="H246" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="F247" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G247" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H247" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="F248" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G248" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="H248" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="F249" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G249" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="H249" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F250" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G250" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H250" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F251" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G251" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H251" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F252" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G252" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H252" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/database/盈虧問題v3.xlsx
+++ b/database/盈虧問題v3.xlsx
@@ -3946,7 +3946,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>NOIMAGE</t>
+          <t>1_1.jpg 1_2.jpg</t>
         </is>
       </c>
       <c r="I113" t="n">
